--- a/data/trans_bre/P40_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,88%</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,55%</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>58,19%</t>
+          <t>-11,26%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-15,19%</t>
+          <t>122,23%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>63,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-38,8%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-15,14%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-23,15%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 9,13</t>
+          <t>-9,84; 9,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 6,35</t>
+          <t>-10,89; 6,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 11,78</t>
+          <t>1,15; 12,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 9,25</t>
+          <t>-2,82; 10,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 7,39</t>
+          <t>-14,63; 2,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 61,92</t>
+          <t>-13,74; 7,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-52,57; 51,66</t>
+          <t>-17,44; 5,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 340,29</t>
+          <t>-41,81; 64,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 292,82</t>
+          <t>-51,95; 56,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-53,24; 54,1</t>
+          <t>-2,56; 429,49</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-33,3; 316,62</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-68,49; 28,99</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-52,76; 51,64</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-51,57; 31,39</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>74,45%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>25,63%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>69,76%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>69,74%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-12,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 12,12</t>
+          <t>-9,55; 12,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 19,82</t>
+          <t>-3,39; 19,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 12,01</t>
+          <t>-3,19; 12,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 18,05</t>
+          <t>1,78; 18,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 6,01</t>
+          <t>-1,18; 13,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 62,15</t>
+          <t>-12,57; 6,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 112,05</t>
+          <t>-7,49; 13,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 84,36</t>
+          <t>-30,88; 65,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 182,7</t>
+          <t>-12,51; 116,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-47,81; 46,62</t>
+          <t>-13,8; 97,78</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 179,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-11,79; 276,82</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-51,62; 54,91</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-28,78; 97,29</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>42,25%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>60,17%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>43,7%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>196,42%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>51,44%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,27%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 14,44</t>
+          <t>0,25; 14,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 11,98</t>
+          <t>-1,18; 14,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 12,21</t>
+          <t>0,45; 11,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 10,62</t>
+          <t>-2,81; 10,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 13,83</t>
+          <t>6,55; 17,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 101,44</t>
+          <t>-0,04; 14,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 94,38</t>
+          <t>-6,71; 10,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 173,33</t>
+          <t>-0,43; 103,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 139,48</t>
+          <t>-6,07; 134,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 135,69</t>
+          <t>2,16; 152,55</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-21,98; 140,68</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>67,93; 506,4</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 131,87</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-24,68; 71,11</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,31</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>76,09%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>69,46%</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>68,09%</t>
+          <t>76,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62,72%</t>
+          <t>73,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>75,08%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>62,37%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>45,41%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>39,84%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>33,23%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 18,04</t>
+          <t>5,79; 18,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 15,55</t>
+          <t>3,37; 16,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 12,27</t>
+          <t>1,62; 13,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 11,78</t>
+          <t>-1,5; 11,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 15,71</t>
+          <t>0,57; 13,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,77; 147,37</t>
+          <t>-1,33; 16,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 159,84</t>
+          <t>-1,88; 13,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 164,09</t>
+          <t>29,89; 157,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 157,04</t>
+          <t>20,87; 166,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 116,29</t>
+          <t>6,56; 179,07</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-12,04; 152,05</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 125,18</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 112,55</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-8,57; 93,92</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-1,71</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,08</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,26%</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>-7,88%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>-3,64%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-38,13%</t>
+          <t>-11,22%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>87,11%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-38,12%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 6,03</t>
+          <t>-11,04; 6,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 6,74</t>
+          <t>-9,43; 7,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 4,89</t>
+          <t>-9,52; 4,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 6,53</t>
+          <t>-7,75; 6,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,79; -1,25</t>
+          <t>0,87; 13,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 37,0</t>
+          <t>-16,96; -0,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 40,91</t>
+          <t>-7,26; 9,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 43,95</t>
+          <t>-38,75; 38,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-39,61; 65,96</t>
+          <t>-37,47; 54,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-58,71; -4,28</t>
+          <t>-47,51; 42,37</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-42,47; 66,57</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 218,53</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-59,41; -4,99</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-28,55; 59,08</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>30,99%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-53,35%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-70,48%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-36,64%</t>
+          <t>-53,82%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-69,1%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>56,17%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-36,56%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-10,85%</t>
         </is>
       </c>
     </row>
@@ -1294,50 +1546,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,64</t>
+          <t>0,0; 7,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,44</t>
+          <t>-1,75; 1,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 1,1</t>
+          <t>-6,13; 0,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 0,94</t>
+          <t>-7,91; 0,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,21</t>
+          <t>-2,86; 3,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-4,25; 2,15</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 2,03</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>33,31%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>49,39%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-3,6%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,97</t>
+          <t>-0,44; 6,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 6,18</t>
+          <t>-0,06; 6,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,53</t>
+          <t>0,92; 5,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,43</t>
+          <t>0,53; 5,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 2,81</t>
+          <t>1,55; 6,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 40,02</t>
+          <t>-4,07; 2,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 44,49</t>
+          <t>-3,49; 3,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 62,6</t>
+          <t>-3,7; 40,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,66; 82,38</t>
+          <t>-0,42; 49,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 20,13</t>
+          <t>7,54; 67,79</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 71,71</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14,38; 90,6</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-22,68; 19,73</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-16,89; 24,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
